--- a/suppxls/Trades/ScenTrade__Trade_Links.xlsx
+++ b/suppxls/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\suppxls\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_Adv_Veda\suppxls\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A471A2CD-8B80-498B-97E9-DA642DA02954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DE023-EA2A-47F3-9737-06C8FB805B58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC Trade" sheetId="9" r:id="rId1"/>
     <sheet name="Uni links" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="48">
   <si>
     <t>Reg1</t>
   </si>
@@ -151,6 +141,30 @@
   </si>
   <si>
     <t>ExtREG3</t>
+  </si>
+  <si>
+    <t>ENVt</t>
+  </si>
+  <si>
+    <t>NRGt</t>
+  </si>
+  <si>
+    <t>MATt</t>
+  </si>
+  <si>
+    <t>FINt</t>
+  </si>
+  <si>
+    <t>DEMt</t>
+  </si>
+  <si>
+    <t>pcg_should_be_DEM</t>
+  </si>
+  <si>
+    <t>pcg_should_be_MAT</t>
+  </si>
+  <si>
+    <t>pcg_should_be_NRG</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:X92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1351,7 +1367,7 @@
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1973,6 +1989,31 @@
       <c r="M13" t="s">
         <v>7</v>
       </c>
+      <c r="O13" t="str">
+        <f>O$12</f>
+        <v>UK</v>
+      </c>
+      <c r="P13" t="str">
+        <f>P$12</f>
+        <v>REG2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" t="str">
+        <f>Q13</f>
+        <v>ENVt</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" ref="S13:S24" si="7">R13</f>
+        <v>ENVt</v>
+      </c>
+      <c r="T13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1986,11 +2027,11 @@
         <v>OPP</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ref="E14:E77" si="7">E6+1</f>
+        <f t="shared" ref="E14:E77" si="8">E6+1</f>
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:H77" si="8">G6</f>
+        <f t="shared" ref="G14:H77" si="9">G6</f>
         <v>REG1</v>
       </c>
       <c r="H14" t="str">
@@ -2016,14 +2057,39 @@
       <c r="M14" t="s">
         <v>7</v>
       </c>
+      <c r="O14" t="str">
+        <f t="shared" ref="O14:P24" si="10">O$12</f>
+        <v>UK</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" ref="R14" si="11">Q14</f>
+        <v>NRGt</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="7"/>
+        <v>NRGt</v>
+      </c>
+      <c r="T14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="E15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H15" t="str">
@@ -2049,14 +2115,39 @@
       <c r="M15" t="s">
         <v>7</v>
       </c>
+      <c r="O15" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" ref="R15" si="12">Q15</f>
+        <v>MATt</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="7"/>
+        <v>MATt</v>
+      </c>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="E16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H16" t="str">
@@ -2082,14 +2173,39 @@
       <c r="M16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O16" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" ref="R16" si="13">Q16</f>
+        <v>FINt</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="7"/>
+        <v>FINt</v>
+      </c>
+      <c r="T16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H17" t="str">
@@ -2115,14 +2231,39 @@
       <c r="M17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O17" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" ref="R17:S17" si="14">Q17</f>
+        <v>DEMt</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="7"/>
+        <v>DEMt</v>
+      </c>
+      <c r="T17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H18" t="str">
@@ -2148,14 +2289,39 @@
       <c r="M18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O18" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" ref="R18" si="15">Q18</f>
+        <v>ENVt</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="7"/>
+        <v>ENVt</v>
+      </c>
+      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H19" t="str">
@@ -2181,14 +2347,39 @@
       <c r="M19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O19" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" ref="R19" si="16">Q19</f>
+        <v>NRGt</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="7"/>
+        <v>NRGt</v>
+      </c>
+      <c r="T19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H20" t="str">
@@ -2214,14 +2405,39 @@
       <c r="M20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O20" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" ref="R20" si="17">Q20</f>
+        <v>MATt</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="7"/>
+        <v>MATt</v>
+      </c>
+      <c r="T20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H21" t="str">
@@ -2247,356 +2463,456 @@
       <c r="M21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O21" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" ref="R21" si="18">Q21</f>
+        <v>FINt</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="7"/>
+        <v>FINt</v>
+      </c>
+      <c r="T21" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E22" s="6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="9"/>
+        <v>REG1</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="6"/>
+        <v>DE</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:J85" si="19">VLOOKUP($E22,$A$4:$C$14,2,FALSE)</f>
+        <v>NUC</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCNUC</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_NUC_REG1-DE</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" ref="R22" si="20">Q22</f>
+        <v>ENVt</v>
+      </c>
+      <c r="S22" t="str">
         <f t="shared" si="7"/>
+        <v>ENVt</v>
+      </c>
+      <c r="T22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="8"/>
+      <c r="G23" t="str">
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H23" t="str">
+        <f t="shared" si="6"/>
+        <v>FR</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCNUC</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_NUC_REG1-FR</v>
+      </c>
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" ref="R23" si="21">Q23</f>
+        <v>NRGt</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="7"/>
+        <v>NRGt</v>
+      </c>
+      <c r="T23" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E24" s="6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="9"/>
+        <v>REG1</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="6"/>
+        <v>ES</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCNUC</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_NUC_REG1-ES</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="10"/>
+        <v>UK</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="10"/>
+        <v>REG2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" ref="R24:S24" si="22">Q24</f>
+        <v>FINt</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="7"/>
+        <v>FINt</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E25" s="6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="9"/>
+        <v>REG2</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCNUC</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_NUC_REG2-IT</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E26" s="6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="9"/>
+        <v>REG2</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="6"/>
+        <v>BE</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCNUC</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_NUC_REG2-BE</v>
+      </c>
+      <c r="M26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E27" s="6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="9"/>
+        <v>REG2</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="6"/>
+        <v>NL</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCNUC</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_NUC_REG2-NL</v>
+      </c>
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E28" s="6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="9"/>
+        <v>REG2</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="6"/>
+        <v>UK</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="19"/>
+        <v>NUC</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCNUC</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_NUC_REG2-UK</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E29" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="9"/>
+        <v>REG1</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="6"/>
+        <v>AT</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="19"/>
+        <v>BIO</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="19"/>
+        <v>BIO</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCBIO</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_BIO_REG1-AT</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E30" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="9"/>
+        <v>REG1</v>
+      </c>
+      <c r="H30" t="str">
         <f t="shared" si="6"/>
         <v>DE</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" ref="I22:J85" si="9">VLOOKUP($E22,$A$4:$C$14,2,FALSE)</f>
-        <v>NUC</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCNUC</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_NUC_REG1-DE</v>
-      </c>
-      <c r="M22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E23" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="8"/>
+      <c r="I30" t="str">
+        <f t="shared" si="19"/>
+        <v>BIO</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="19"/>
+        <v>BIO</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCBIO</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_BIO_REG1-DE</v>
+      </c>
+      <c r="M30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E31" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="6"/>
         <v>FR</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCNUC</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_NUC_REG1-FR</v>
-      </c>
-      <c r="M23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E24" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="8"/>
+      <c r="I31" t="str">
+        <f t="shared" si="19"/>
+        <v>BIO</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="19"/>
+        <v>BIO</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v>ELCBIO</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v>TU_BIO_REG1-FR</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="E32" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="6"/>
         <v>ES</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCNUC</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_NUC_REG1-ES</v>
-      </c>
-      <c r="M24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E25" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="8"/>
-        <v>REG2</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="6"/>
-        <v>IT</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCNUC</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_NUC_REG2-IT</v>
-      </c>
-      <c r="M25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E26" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="8"/>
-        <v>REG2</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="6"/>
-        <v>BE</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCNUC</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_NUC_REG2-BE</v>
-      </c>
-      <c r="M26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E27" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="8"/>
-        <v>REG2</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="6"/>
-        <v>NL</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCNUC</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_NUC_REG2-NL</v>
-      </c>
-      <c r="M27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E28" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="8"/>
-        <v>REG2</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="6"/>
-        <v>UK</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="9"/>
-        <v>NUC</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCNUC</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_NUC_REG2-UK</v>
-      </c>
-      <c r="M28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E29" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="8"/>
-        <v>REG1</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="6"/>
-        <v>AT</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="9"/>
+      <c r="I32" t="str">
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" si="9"/>
-        <v>BIO</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCBIO</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_BIO_REG1-AT</v>
-      </c>
-      <c r="M29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E30" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="8"/>
-        <v>REG1</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="6"/>
-        <v>DE</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="9"/>
-        <v>BIO</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="9"/>
-        <v>BIO</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCBIO</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_BIO_REG1-DE</v>
-      </c>
-      <c r="M30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E31" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="8"/>
-        <v>REG1</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="6"/>
-        <v>FR</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="9"/>
-        <v>BIO</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="9"/>
-        <v>BIO</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="2"/>
-        <v>ELCBIO</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="3"/>
-        <v>TU_BIO_REG1-FR</v>
-      </c>
-      <c r="M31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="E32" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="8"/>
-        <v>REG1</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="6"/>
-        <v>ES</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="9"/>
-        <v>BIO</v>
-      </c>
       <c r="J32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="K32" t="str">
@@ -2613,11 +2929,11 @@
     </row>
     <row r="33" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H33" t="str">
@@ -2625,11 +2941,11 @@
         <v>IT</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="K33" t="str">
@@ -2646,11 +2962,11 @@
     </row>
     <row r="34" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H34" t="str">
@@ -2658,11 +2974,11 @@
         <v>BE</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="K34" t="str">
@@ -2679,11 +2995,11 @@
     </row>
     <row r="35" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H35" t="str">
@@ -2691,11 +3007,11 @@
         <v>NL</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="K35" t="str">
@@ -2712,11 +3028,11 @@
     </row>
     <row r="36" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E36" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H36" t="str">
@@ -2724,11 +3040,11 @@
         <v>UK</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>BIO</v>
       </c>
       <c r="K36" t="str">
@@ -2745,11 +3061,11 @@
     </row>
     <row r="37" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H37" t="str">
@@ -2757,11 +3073,11 @@
         <v>AT</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="K37" t="str">
@@ -2778,11 +3094,11 @@
     </row>
     <row r="38" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H38" t="str">
@@ -2790,11 +3106,11 @@
         <v>DE</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="K38" t="str">
@@ -2811,11 +3127,11 @@
     </row>
     <row r="39" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E39" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H39" t="str">
@@ -2823,11 +3139,11 @@
         <v>FR</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="K39" t="str">
@@ -2844,11 +3160,11 @@
     </row>
     <row r="40" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H40" t="str">
@@ -2856,11 +3172,11 @@
         <v>ES</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="K40" t="str">
@@ -2877,11 +3193,11 @@
     </row>
     <row r="41" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E41" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H41" t="str">
@@ -2889,11 +3205,11 @@
         <v>IT</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="K41" t="str">
@@ -2910,11 +3226,11 @@
     </row>
     <row r="42" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E42" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H42" t="str">
@@ -2922,11 +3238,11 @@
         <v>BE</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="K42" t="str">
@@ -2943,11 +3259,11 @@
     </row>
     <row r="43" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E43" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H43" t="str">
@@ -2955,11 +3271,11 @@
         <v>NL</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="K43" t="str">
@@ -2976,11 +3292,11 @@
     </row>
     <row r="44" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E44" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H44" t="str">
@@ -2988,11 +3304,11 @@
         <v>UK</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HYD</v>
       </c>
       <c r="K44" t="str">
@@ -3009,11 +3325,11 @@
     </row>
     <row r="45" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E45" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H45" t="str">
@@ -3021,11 +3337,11 @@
         <v>AT</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="K45" t="str">
@@ -3042,11 +3358,11 @@
     </row>
     <row r="46" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E46" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H46" t="str">
@@ -3054,11 +3370,11 @@
         <v>DE</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="K46" t="str">
@@ -3075,11 +3391,11 @@
     </row>
     <row r="47" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E47" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H47" t="str">
@@ -3087,11 +3403,11 @@
         <v>FR</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="K47" t="str">
@@ -3108,11 +3424,11 @@
     </row>
     <row r="48" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H48" t="str">
@@ -3120,11 +3436,11 @@
         <v>ES</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="K48" t="str">
@@ -3141,11 +3457,11 @@
     </row>
     <row r="49" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E49" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H49" t="str">
@@ -3153,11 +3469,11 @@
         <v>IT</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="K49" t="str">
@@ -3174,11 +3490,11 @@
     </row>
     <row r="50" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E50" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H50" t="str">
@@ -3186,11 +3502,11 @@
         <v>BE</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="K50" t="str">
@@ -3207,11 +3523,11 @@
     </row>
     <row r="51" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E51" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H51" t="str">
@@ -3219,11 +3535,11 @@
         <v>NL</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="K51" t="str">
@@ -3240,11 +3556,11 @@
     </row>
     <row r="52" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E52" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H52" t="str">
@@ -3252,11 +3568,11 @@
         <v>UK</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>WIN</v>
       </c>
       <c r="K52" t="str">
@@ -3273,11 +3589,11 @@
     </row>
     <row r="53" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H53" t="str">
@@ -3285,11 +3601,11 @@
         <v>AT</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="K53" t="str">
@@ -3306,11 +3622,11 @@
     </row>
     <row r="54" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E54" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H54" t="str">
@@ -3318,11 +3634,11 @@
         <v>DE</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="K54" t="str">
@@ -3339,11 +3655,11 @@
     </row>
     <row r="55" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E55" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H55" t="str">
@@ -3351,11 +3667,11 @@
         <v>FR</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="K55" t="str">
@@ -3372,11 +3688,11 @@
     </row>
     <row r="56" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E56" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H56" t="str">
@@ -3384,11 +3700,11 @@
         <v>ES</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="K56" t="str">
@@ -3405,11 +3721,11 @@
     </row>
     <row r="57" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H57" t="str">
@@ -3417,11 +3733,11 @@
         <v>IT</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="K57" t="str">
@@ -3438,11 +3754,11 @@
     </row>
     <row r="58" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H58" t="str">
@@ -3450,11 +3766,11 @@
         <v>BE</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="K58" t="str">
@@ -3471,11 +3787,11 @@
     </row>
     <row r="59" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H59" t="str">
@@ -3483,11 +3799,11 @@
         <v>NL</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="K59" t="str">
@@ -3504,11 +3820,11 @@
     </row>
     <row r="60" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E60" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H60" t="str">
@@ -3516,11 +3832,11 @@
         <v>UK</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>SOL</v>
       </c>
       <c r="K60" t="str">
@@ -3537,11 +3853,11 @@
     </row>
     <row r="61" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H61" t="str">
@@ -3549,11 +3865,11 @@
         <v>AT</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="K61" t="str">
@@ -3570,11 +3886,11 @@
     </row>
     <row r="62" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E62" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H62" t="str">
@@ -3582,11 +3898,11 @@
         <v>DE</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="K62" t="str">
@@ -3603,11 +3919,11 @@
     </row>
     <row r="63" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H63" t="str">
@@ -3615,11 +3931,11 @@
         <v>FR</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="K63" t="str">
@@ -3636,11 +3952,11 @@
     </row>
     <row r="64" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E64" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H64" t="str">
@@ -3648,11 +3964,11 @@
         <v>ES</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="K64" t="str">
@@ -3669,11 +3985,11 @@
     </row>
     <row r="65" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E65" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H65" t="str">
@@ -3681,11 +3997,11 @@
         <v>IT</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="K65" t="str">
@@ -3702,11 +4018,11 @@
     </row>
     <row r="66" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E66" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H66" t="str">
@@ -3714,11 +4030,11 @@
         <v>BE</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="K66" t="str">
@@ -3735,11 +4051,11 @@
     </row>
     <row r="67" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E67" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H67" t="str">
@@ -3747,11 +4063,11 @@
         <v>NL</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="K67" t="str">
@@ -3768,11 +4084,11 @@
     </row>
     <row r="68" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H68" t="str">
@@ -3780,11 +4096,11 @@
         <v>UK</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>DSL</v>
       </c>
       <c r="K68" t="str">
@@ -3801,11 +4117,11 @@
     </row>
     <row r="69" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H69" t="str">
@@ -3813,11 +4129,11 @@
         <v>AT</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="K69" t="str">
@@ -3834,11 +4150,11 @@
     </row>
     <row r="70" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H70" t="str">
@@ -3846,19 +4162,19 @@
         <v>DE</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" ref="K70:K92" si="10">VLOOKUP($E70,$A$4:$C$14,3,FALSE)</f>
+        <f t="shared" ref="K70:K92" si="23">VLOOKUP($E70,$A$4:$C$14,3,FALSE)</f>
         <v>LPG</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" ref="L70:L92" si="11">"TU_"&amp;I70&amp;"_"&amp;G70&amp;"-"&amp;H70</f>
+        <f t="shared" ref="L70:L92" si="24">"TU_"&amp;I70&amp;"_"&amp;G70&amp;"-"&amp;H70</f>
         <v>TU_LPG_REG1-DE</v>
       </c>
       <c r="M70" t="s">
@@ -3867,11 +4183,11 @@
     </row>
     <row r="71" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H71" t="str">
@@ -3879,19 +4195,19 @@
         <v>FR</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>LPG</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_LPG_REG1-FR</v>
       </c>
       <c r="M71" t="s">
@@ -3900,11 +4216,11 @@
     </row>
     <row r="72" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H72" t="str">
@@ -3912,19 +4228,19 @@
         <v>ES</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>LPG</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_LPG_REG1-ES</v>
       </c>
       <c r="M72" t="s">
@@ -3933,11 +4249,11 @@
     </row>
     <row r="73" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H73" t="str">
@@ -3945,19 +4261,19 @@
         <v>IT</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>LPG</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_LPG_REG2-IT</v>
       </c>
       <c r="M73" t="s">
@@ -3966,11 +4282,11 @@
     </row>
     <row r="74" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H74" t="str">
@@ -3978,19 +4294,19 @@
         <v>BE</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>LPG</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_LPG_REG2-BE</v>
       </c>
       <c r="M74" t="s">
@@ -3999,11 +4315,11 @@
     </row>
     <row r="75" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H75" t="str">
@@ -4011,19 +4327,19 @@
         <v>NL</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>LPG</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_LPG_REG2-NL</v>
       </c>
       <c r="M75" t="s">
@@ -4032,11 +4348,11 @@
     </row>
     <row r="76" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E76" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG2</v>
       </c>
       <c r="H76" t="str">
@@ -4044,19 +4360,19 @@
         <v>UK</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>LPG</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>LPG</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_LPG_REG2-UK</v>
       </c>
       <c r="M76" t="s">
@@ -4065,31 +4381,31 @@
     </row>
     <row r="77" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E77" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>REG1</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>AT</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>HFO</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_HFO_REG1-AT</v>
       </c>
       <c r="M77" t="s">
@@ -4098,31 +4414,31 @@
     </row>
     <row r="78" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
-        <f t="shared" ref="E78:E92" si="12">E70+1</f>
+        <f t="shared" ref="E78:E92" si="25">E70+1</f>
         <v>10</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" ref="G78:H92" si="13">G70</f>
+        <f t="shared" ref="G78:H92" si="26">G70</f>
         <v>REG1</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>DE</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>HFO</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_HFO_REG1-DE</v>
       </c>
       <c r="M78" t="s">
@@ -4131,31 +4447,31 @@
     </row>
     <row r="79" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E79" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" ref="G79:G92" si="14">G71</f>
+        <f t="shared" ref="G79:G92" si="27">G71</f>
         <v>REG1</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>FR</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>HFO</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_HFO_REG1-FR</v>
       </c>
       <c r="M79" t="s">
@@ -4164,31 +4480,31 @@
     </row>
     <row r="80" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E80" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG1</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>ES</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>HFO</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_HFO_REG1-ES</v>
       </c>
       <c r="M80" t="s">
@@ -4197,31 +4513,31 @@
     </row>
     <row r="81" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG2</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>IT</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>HFO</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_HFO_REG2-IT</v>
       </c>
       <c r="M81" t="s">
@@ -4230,31 +4546,31 @@
     </row>
     <row r="82" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E82" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG2</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>BE</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>HFO</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_HFO_REG2-BE</v>
       </c>
       <c r="M82" t="s">
@@ -4263,31 +4579,31 @@
     </row>
     <row r="83" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E83" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG2</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>NL</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>HFO</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_HFO_REG2-NL</v>
       </c>
       <c r="M83" t="s">
@@ -4296,31 +4612,31 @@
     </row>
     <row r="84" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E84" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG2</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>UK</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>HFO</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>HFO</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_HFO_REG2-UK</v>
       </c>
       <c r="M84" t="s">
@@ -4329,31 +4645,31 @@
     </row>
     <row r="85" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E85" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG1</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>AT</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>OPP</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>OPP</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>OPP</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_OPP_REG1-AT</v>
       </c>
       <c r="M85" t="s">
@@ -4362,31 +4678,31 @@
     </row>
     <row r="86" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E86" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG1</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>DE</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" ref="I86:J92" si="15">VLOOKUP($E86,$A$4:$C$14,2,FALSE)</f>
+        <f t="shared" ref="I86:J92" si="28">VLOOKUP($E86,$A$4:$C$14,2,FALSE)</f>
         <v>OPP</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>OPP</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_OPP_REG1-DE</v>
       </c>
       <c r="M86" t="s">
@@ -4395,31 +4711,31 @@
     </row>
     <row r="87" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E87" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG1</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>FR</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>OPP</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_OPP_REG1-FR</v>
       </c>
       <c r="M87" t="s">
@@ -4428,31 +4744,31 @@
     </row>
     <row r="88" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG1</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>ES</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>OPP</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_OPP_REG1-ES</v>
       </c>
       <c r="M88" t="s">
@@ -4461,31 +4777,31 @@
     </row>
     <row r="89" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E89" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG2</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>IT</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>OPP</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_OPP_REG2-IT</v>
       </c>
       <c r="M89" t="s">
@@ -4494,31 +4810,31 @@
     </row>
     <row r="90" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E90" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG2</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>BE</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>OPP</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_OPP_REG2-BE</v>
       </c>
       <c r="M90" t="s">
@@ -4527,31 +4843,31 @@
     </row>
     <row r="91" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E91" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG2</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>NL</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>OPP</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_OPP_REG2-NL</v>
       </c>
       <c r="M91" t="s">
@@ -4560,31 +4876,31 @@
     </row>
     <row r="92" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E92" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>REG2</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>UK</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>OPP</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>OPP</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>TU_OPP_REG2-UK</v>
       </c>
       <c r="M92" t="s">
@@ -4602,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9572DD1-657E-4214-A0F5-037060A6A8DB}">
   <dimension ref="B3:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/suppxls/Trades/ScenTrade__Trade_Links.xlsx
+++ b/suppxls/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_Adv_Veda\suppxls\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DE023-EA2A-47F3-9737-06C8FB805B58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA5AC37-6D2C-4299-8F1B-BAC80DAE31BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC Trade" sheetId="9" r:id="rId1"/>
     <sheet name="Uni links" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="49">
   <si>
     <t>Reg1</t>
   </si>
@@ -165,6 +176,9 @@
   </si>
   <si>
     <t>pcg_should_be_NRG</t>
+  </si>
+  <si>
+    <t>HET</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2243,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" ref="R17:S17" si="14">Q17</f>
+        <f t="shared" ref="R17" si="14">Q17</f>
         <v>DEMt</v>
       </c>
       <c r="S17" t="str">
@@ -2649,7 +2663,7 @@
         <v>43</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" ref="R24:S24" si="22">Q24</f>
+        <f t="shared" ref="R24" si="22">Q24</f>
         <v>FINt</v>
       </c>
       <c r="S24" t="str">
@@ -2794,6 +2808,9 @@
       <c r="M28" t="s">
         <v>7</v>
       </c>
+      <c r="O28" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E29" s="6">
@@ -2827,6 +2844,27 @@
       <c r="M29" t="s">
         <v>7</v>
       </c>
+      <c r="O29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E30" s="6">
@@ -2860,6 +2898,30 @@
       <c r="M30" t="s">
         <v>7</v>
       </c>
+      <c r="O30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" s="5" t="str">
+        <f>Q30</f>
+        <v>HET</v>
+      </c>
+      <c r="S30" s="5" t="str">
+        <f t="shared" ref="S30:S37" si="23">R30</f>
+        <v>HET</v>
+      </c>
+      <c r="T30" t="str">
+        <f>"TU_HET_"&amp;O30&amp;"-"&amp;P30</f>
+        <v>TU_HET_AT-REG1</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E31" s="6">
@@ -2893,6 +2955,30 @@
       <c r="M31" t="s">
         <v>7</v>
       </c>
+      <c r="O31" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R31" s="5" t="str">
+        <f t="shared" ref="R31:S31" si="24">Q31</f>
+        <v>HET</v>
+      </c>
+      <c r="S31" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>HET</v>
+      </c>
+      <c r="T31" t="str">
+        <f>"TU_HET_"&amp;O31&amp;"-"&amp;P31</f>
+        <v>TU_HET_DE-REG1</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E32" s="6">
@@ -2926,8 +3012,32 @@
       <c r="M32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R32" s="5" t="str">
+        <f t="shared" ref="R32:S32" si="25">Q32</f>
+        <v>HET</v>
+      </c>
+      <c r="S32" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>HET</v>
+      </c>
+      <c r="T32" t="str">
+        <f>"TU_HET_"&amp;O32&amp;"-"&amp;P32</f>
+        <v>TU_HET_FR-REG1</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E33" s="6">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -2959,8 +3069,32 @@
       <c r="M33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R33" s="5" t="str">
+        <f t="shared" ref="R33:S33" si="26">Q33</f>
+        <v>HET</v>
+      </c>
+      <c r="S33" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>HET</v>
+      </c>
+      <c r="T33" t="str">
+        <f>"TU_HET_"&amp;O33&amp;"-"&amp;P33</f>
+        <v>TU_HET_ES-REG1</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E34" s="6">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -2992,8 +3126,32 @@
       <c r="M34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R34" s="5" t="str">
+        <f t="shared" ref="R34:S34" si="27">Q34</f>
+        <v>HET</v>
+      </c>
+      <c r="S34" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>HET</v>
+      </c>
+      <c r="T34" t="str">
+        <f>"TU_HET_"&amp;O34&amp;"-"&amp;P34</f>
+        <v>TU_HET_IT-REG2</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E35" s="6">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -3025,8 +3183,32 @@
       <c r="M35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" s="5" t="str">
+        <f t="shared" ref="R35:S35" si="28">Q35</f>
+        <v>HET</v>
+      </c>
+      <c r="S35" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>HET</v>
+      </c>
+      <c r="T35" t="str">
+        <f>"TU_HET_"&amp;O35&amp;"-"&amp;P35</f>
+        <v>TU_HET_BE-REG2</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E36" s="6">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -3058,8 +3240,32 @@
       <c r="M36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R36" s="5" t="str">
+        <f t="shared" ref="R36:S36" si="29">Q36</f>
+        <v>HET</v>
+      </c>
+      <c r="S36" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>HET</v>
+      </c>
+      <c r="T36" t="str">
+        <f>"TU_HET_"&amp;O36&amp;"-"&amp;P36</f>
+        <v>TU_HET_NL-REG2</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3091,8 +3297,32 @@
       <c r="M37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" s="5" t="str">
+        <f t="shared" ref="R37:S37" si="30">Q37</f>
+        <v>HET</v>
+      </c>
+      <c r="S37" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>HET</v>
+      </c>
+      <c r="T37" t="str">
+        <f>"TU_HET_"&amp;O37&amp;"-"&amp;P37</f>
+        <v>TU_HET_UK-REG2</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3125,7 +3355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E39" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3158,7 +3388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E40" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3191,7 +3421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E41" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3224,7 +3454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E42" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3257,7 +3487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E43" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3290,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E44" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3323,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E45" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -3356,7 +3586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E46" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -3389,7 +3619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E47" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -3422,7 +3652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="5:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:21" ht="15" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -4170,11 +4400,11 @@
         <v>LPG</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" ref="K70:K92" si="23">VLOOKUP($E70,$A$4:$C$14,3,FALSE)</f>
+        <f t="shared" ref="K70:K92" si="31">VLOOKUP($E70,$A$4:$C$14,3,FALSE)</f>
         <v>LPG</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" ref="L70:L92" si="24">"TU_"&amp;I70&amp;"_"&amp;G70&amp;"-"&amp;H70</f>
+        <f t="shared" ref="L70:L92" si="32">"TU_"&amp;I70&amp;"_"&amp;G70&amp;"-"&amp;H70</f>
         <v>TU_LPG_REG1-DE</v>
       </c>
       <c r="M70" t="s">
@@ -4203,11 +4433,11 @@
         <v>LPG</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>LPG</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_LPG_REG1-FR</v>
       </c>
       <c r="M71" t="s">
@@ -4236,11 +4466,11 @@
         <v>LPG</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>LPG</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_LPG_REG1-ES</v>
       </c>
       <c r="M72" t="s">
@@ -4269,11 +4499,11 @@
         <v>LPG</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>LPG</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_LPG_REG2-IT</v>
       </c>
       <c r="M73" t="s">
@@ -4302,11 +4532,11 @@
         <v>LPG</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>LPG</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_LPG_REG2-BE</v>
       </c>
       <c r="M74" t="s">
@@ -4335,11 +4565,11 @@
         <v>LPG</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>LPG</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_LPG_REG2-NL</v>
       </c>
       <c r="M75" t="s">
@@ -4368,11 +4598,11 @@
         <v>LPG</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>LPG</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_LPG_REG2-UK</v>
       </c>
       <c r="M76" t="s">
@@ -4401,11 +4631,11 @@
         <v>HFO</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>HFO</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_HFO_REG1-AT</v>
       </c>
       <c r="M77" t="s">
@@ -4414,15 +4644,15 @@
     </row>
     <row r="78" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
-        <f t="shared" ref="E78:E92" si="25">E70+1</f>
+        <f t="shared" ref="E78:E92" si="33">E70+1</f>
         <v>10</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" ref="G78:H92" si="26">G70</f>
+        <f t="shared" ref="G78:H92" si="34">G70</f>
         <v>REG1</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>DE</v>
       </c>
       <c r="I78" t="str">
@@ -4434,11 +4664,11 @@
         <v>HFO</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>HFO</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_HFO_REG1-DE</v>
       </c>
       <c r="M78" t="s">
@@ -4447,15 +4677,15 @@
     </row>
     <row r="79" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E79" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" ref="G79:G92" si="27">G71</f>
+        <f t="shared" ref="G79:G92" si="35">G71</f>
         <v>REG1</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>FR</v>
       </c>
       <c r="I79" t="str">
@@ -4467,11 +4697,11 @@
         <v>HFO</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>HFO</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_HFO_REG1-FR</v>
       </c>
       <c r="M79" t="s">
@@ -4480,15 +4710,15 @@
     </row>
     <row r="80" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E80" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG1</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>ES</v>
       </c>
       <c r="I80" t="str">
@@ -4500,11 +4730,11 @@
         <v>HFO</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>HFO</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_HFO_REG1-ES</v>
       </c>
       <c r="M80" t="s">
@@ -4513,15 +4743,15 @@
     </row>
     <row r="81" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E81" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG2</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>IT</v>
       </c>
       <c r="I81" t="str">
@@ -4533,11 +4763,11 @@
         <v>HFO</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>HFO</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_HFO_REG2-IT</v>
       </c>
       <c r="M81" t="s">
@@ -4546,15 +4776,15 @@
     </row>
     <row r="82" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E82" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG2</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>BE</v>
       </c>
       <c r="I82" t="str">
@@ -4566,11 +4796,11 @@
         <v>HFO</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>HFO</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_HFO_REG2-BE</v>
       </c>
       <c r="M82" t="s">
@@ -4579,15 +4809,15 @@
     </row>
     <row r="83" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E83" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG2</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>NL</v>
       </c>
       <c r="I83" t="str">
@@ -4599,11 +4829,11 @@
         <v>HFO</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>HFO</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_HFO_REG2-NL</v>
       </c>
       <c r="M83" t="s">
@@ -4612,15 +4842,15 @@
     </row>
     <row r="84" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E84" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG2</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>UK</v>
       </c>
       <c r="I84" t="str">
@@ -4632,11 +4862,11 @@
         <v>HFO</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>HFO</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_HFO_REG2-UK</v>
       </c>
       <c r="M84" t="s">
@@ -4645,15 +4875,15 @@
     </row>
     <row r="85" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E85" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG1</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>AT</v>
       </c>
       <c r="I85" t="str">
@@ -4665,11 +4895,11 @@
         <v>OPP</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>OPP</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_OPP_REG1-AT</v>
       </c>
       <c r="M85" t="s">
@@ -4678,31 +4908,31 @@
     </row>
     <row r="86" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E86" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG1</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>DE</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" ref="I86:J92" si="28">VLOOKUP($E86,$A$4:$C$14,2,FALSE)</f>
+        <f t="shared" ref="I86:J92" si="36">VLOOKUP($E86,$A$4:$C$14,2,FALSE)</f>
         <v>OPP</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>OPP</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_OPP_REG1-DE</v>
       </c>
       <c r="M86" t="s">
@@ -4711,31 +4941,31 @@
     </row>
     <row r="87" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E87" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG1</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>FR</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>OPP</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_OPP_REG1-FR</v>
       </c>
       <c r="M87" t="s">
@@ -4744,31 +4974,31 @@
     </row>
     <row r="88" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG1</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>ES</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>OPP</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_OPP_REG1-ES</v>
       </c>
       <c r="M88" t="s">
@@ -4777,31 +5007,31 @@
     </row>
     <row r="89" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E89" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG2</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>IT</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>OPP</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_OPP_REG2-IT</v>
       </c>
       <c r="M89" t="s">
@@ -4810,31 +5040,31 @@
     </row>
     <row r="90" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E90" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG2</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>BE</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>OPP</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_OPP_REG2-BE</v>
       </c>
       <c r="M90" t="s">
@@ -4843,31 +5073,31 @@
     </row>
     <row r="91" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E91" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG2</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>NL</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>OPP</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_OPP_REG2-NL</v>
       </c>
       <c r="M91" t="s">
@@ -4876,31 +5106,31 @@
     </row>
     <row r="92" spans="5:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E92" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>REG2</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>UK</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>OPP</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>OPP</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>TU_OPP_REG2-UK</v>
       </c>
       <c r="M92" t="s">
@@ -4919,7 +5149,7 @@
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
